--- a/resources/data-imports/Kingdoms/kingdoms.xlsx
+++ b/resources/data-imports/Kingdoms/kingdoms.xlsx
@@ -359,15 +359,19 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,40 +679,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="390" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="390.333" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -2023,28 +2027,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="484" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="484.739" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="18.71" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -2716,10 +2720,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2738,7 +2742,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2752,7 +2756,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -2766,7 +2770,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -2780,7 +2784,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2794,7 +2798,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -2808,7 +2812,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -2822,7 +2826,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -2836,7 +2840,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2850,7 +2854,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -2864,7 +2868,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -2878,7 +2882,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -2892,7 +2896,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -2906,7 +2910,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>15</v>

--- a/resources/data-imports/Kingdoms/kingdoms.xlsx
+++ b/resources/data-imports/Kingdoms/kingdoms.xlsx
@@ -717,7 +717,7 @@
     <col min="30" max="30" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="29.421" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1650,8 +1650,8 @@
       <c r="AE12">
         <v>1</v>
       </c>
-      <c r="AG12">
-        <v>5</v>
+      <c r="AG12" t="s">
+        <v>54</v>
       </c>
       <c r="AH12">
         <v>1</v>
@@ -1739,8 +1739,8 @@
       <c r="AE13">
         <v>1</v>
       </c>
-      <c r="AG13">
-        <v>7</v>
+      <c r="AG13" t="s">
+        <v>56</v>
       </c>
       <c r="AH13">
         <v>1</v>
@@ -1825,8 +1825,8 @@
       <c r="AE14">
         <v>1</v>
       </c>
-      <c r="AG14">
-        <v>9</v>
+      <c r="AG14" t="s">
+        <v>58</v>
       </c>
       <c r="AH14">
         <v>1</v>
@@ -1908,8 +1908,8 @@
       <c r="AF15">
         <v>1</v>
       </c>
-      <c r="AG15">
-        <v>10</v>
+      <c r="AG15" t="s">
+        <v>60</v>
       </c>
       <c r="AH15">
         <v>1</v>
@@ -1997,8 +1997,8 @@
       <c r="AF16">
         <v>1</v>
       </c>
-      <c r="AG16">
-        <v>12</v>
+      <c r="AG16" t="s">
+        <v>62</v>
       </c>
       <c r="AH16">
         <v>1</v>
@@ -2075,6 +2075,12 @@
         <v>15</v>
       </c>
       <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH17">
         <v>1</v>
       </c>
     </row>
